--- a/search_path_of_schema/search_path調査.xlsx
+++ b/search_path_of_schema/search_path調査.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEBD848-FAD1-41AA-90C6-9C40165E96CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E674098E-8496-4CC0-8ECA-D78AF5376089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RLS" sheetId="2" r:id="rId1"/>
+    <sheet name="search_path" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
   <si>
     <t>1)DB作成</t>
     <rPh sb="4" eb="6">
@@ -557,6 +557,13 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注：標準SQLには、publicスキーマという概念もありません。 標準に最大限従うためには、publicスキーマは使用すべきではありません。</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1046,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1130,581 +1137,545 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="2" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" s="5" customFormat="1">
-      <c r="B13" s="5" t="s">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" s="5" customFormat="1">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" s="5" customFormat="1">
-      <c r="B16" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" s="5" customFormat="1">
       <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="5" customFormat="1">
+      <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="5" customFormat="1">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:6" s="5" customFormat="1">
+      <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" s="5" customFormat="1">
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" s="5" customFormat="1">
       <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" s="5" customFormat="1">
       <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" s="5" customFormat="1">
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" s="5" customFormat="1">
-      <c r="B26" s="5">
-        <v>99</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="5">
-        <v>10</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" s="5" customFormat="1">
       <c r="B27" s="5">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6" s="5" customFormat="1">
       <c r="B28" s="5">
-        <v>2200</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="5">
         <v>10</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6" s="5" customFormat="1">
       <c r="B29" s="5">
-        <v>13158</v>
+        <v>2200</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="5">
         <v>10</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6" s="5" customFormat="1">
       <c r="B30" s="5">
-        <v>25363</v>
+        <v>13158</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5">
         <v>10</v>
       </c>
+      <c r="E30" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2" t="s">
+    <row r="31" spans="2:6" s="5" customFormat="1">
+      <c r="B31" s="5">
+        <v>25363</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" s="5" customFormat="1">
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" s="5" customFormat="1">
       <c r="B34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" s="5" customFormat="1">
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6" s="5" customFormat="1">
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" s="5" customFormat="1">
       <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" s="5" customFormat="1">
+      <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2" t="s">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" s="5" customFormat="1">
-      <c r="B40" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:6" s="5" customFormat="1">
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:6" s="5" customFormat="1">
       <c r="B42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="8"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="2:6" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" s="5" customFormat="1">
+      <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="2" t="s">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" s="5" customFormat="1">
-      <c r="B46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" s="5" customFormat="1">
       <c r="B47" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:6" s="5" customFormat="1">
       <c r="B48" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="2:6" s="5" customFormat="1">
       <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" s="5" customFormat="1">
+      <c r="B50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="2" t="s">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" s="5" customFormat="1">
-      <c r="B52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="2:6" s="5" customFormat="1">
       <c r="B53" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="2:6" s="5" customFormat="1">
       <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:6" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="2" t="s">
+      <c r="F55" s="8"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" s="5" customFormat="1">
-      <c r="B57" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:6" s="5" customFormat="1">
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="2:6" s="5" customFormat="1">
       <c r="B59" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="2:6" s="5" customFormat="1">
       <c r="B60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="2:6" s="5" customFormat="1">
+      <c r="B61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="2" t="s">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" s="5" customFormat="1">
-      <c r="B63" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="2:6" s="5" customFormat="1">
       <c r="B64" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="2:6" s="5" customFormat="1">
       <c r="B65" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="2:6" s="5" customFormat="1">
       <c r="B66" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="2:6" s="5" customFormat="1">
       <c r="B67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="2:6" s="5" customFormat="1">
+      <c r="B68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="2" t="s">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" s="5" customFormat="1">
-      <c r="B70" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="8"/>
     </row>
     <row r="71" spans="2:6" s="5" customFormat="1">
       <c r="B71" s="5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="2:6" s="5" customFormat="1">
       <c r="B72" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="2:6" s="5" customFormat="1">
       <c r="B73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="2:6" s="5" customFormat="1">
+      <c r="B74" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="2" t="s">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="5" customFormat="1">
-      <c r="B76" s="5" t="s">
+    <row r="77" spans="2:6" s="5" customFormat="1">
+      <c r="B77" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="2" t="s">
+      <c r="F77" s="8"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" s="5" customFormat="1">
-      <c r="B79" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="8"/>
     </row>
     <row r="80" spans="2:6" s="5" customFormat="1">
       <c r="B80" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="2:14" s="5" customFormat="1">
       <c r="B81" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="2:14" s="5" customFormat="1">
       <c r="B82" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="2:14" s="5" customFormat="1">
       <c r="B83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="2:14" s="5" customFormat="1">
+      <c r="B84" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="85" spans="2:14">
-      <c r="B85" s="2" t="s">
+      <c r="F84" s="8"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" s="5" customFormat="1">
-      <c r="B86" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="2:14" s="5" customFormat="1">
       <c r="B87" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F87" s="8"/>
     </row>
     <row r="88" spans="2:14" s="5" customFormat="1">
       <c r="B88" s="5" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="2:14" s="5" customFormat="1">
       <c r="B89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="2:14" s="5" customFormat="1">
+      <c r="B90" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="91" spans="2:14">
-      <c r="B91" s="2" t="s">
+      <c r="F90" s="8"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" s="5" customFormat="1">
-      <c r="B92" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F92" s="8"/>
     </row>
     <row r="93" spans="2:14" s="5" customFormat="1">
       <c r="B93" s="5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F93" s="8"/>
     </row>
     <row r="94" spans="2:14" s="5" customFormat="1">
       <c r="B94" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L94" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" spans="2:14" s="5" customFormat="1">
       <c r="B95" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="2:14" s="5" customFormat="1">
       <c r="B96" s="5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I96" s="5">
-        <v>-1</v>
+        <v>77</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N96" s="5">
-        <v>25370</v>
+        <v>79</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1">
       <c r="B97" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>96</v>
@@ -1716,7 +1687,7 @@
         <v>98</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>100</v>
@@ -1734,15 +1705,15 @@
         <v>103</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N97" s="5">
-        <v>4200</v>
+        <v>25370</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="5" customFormat="1">
       <c r="B98" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>106</v>
@@ -1757,7 +1728,7 @@
         <v>98</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>100</v>
@@ -1778,12 +1749,12 @@
         <v>107</v>
       </c>
       <c r="N98" s="5">
-        <v>25371</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="5" customFormat="1">
       <c r="B99" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>106</v>
@@ -1798,7 +1769,7 @@
         <v>98</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>100</v>
@@ -1819,30 +1790,30 @@
         <v>107</v>
       </c>
       <c r="N99" s="5">
-        <v>4569</v>
+        <v>25371</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="5" customFormat="1">
       <c r="B100" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I100" s="5">
         <v>-1</v>
@@ -1854,36 +1825,36 @@
         <v>102</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>107</v>
       </c>
       <c r="N100" s="5">
-        <v>10</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="5" customFormat="1">
       <c r="B101" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I101" s="5">
         <v>-1</v>
@@ -1895,18 +1866,18 @@
         <v>102</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M101" s="5" t="s">
         <v>107</v>
       </c>
       <c r="N101" s="5">
-        <v>4570</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="5" customFormat="1">
       <c r="B102" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>106</v>
@@ -1942,12 +1913,12 @@
         <v>107</v>
       </c>
       <c r="N102" s="5">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="5" customFormat="1">
       <c r="B103" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>106</v>
@@ -1983,12 +1954,12 @@
         <v>107</v>
       </c>
       <c r="N103" s="5">
-        <v>3375</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="5" customFormat="1">
       <c r="B104" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>106</v>
@@ -2024,12 +1995,12 @@
         <v>107</v>
       </c>
       <c r="N104" s="5">
-        <v>3373</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="5" customFormat="1">
       <c r="B105" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>106</v>
@@ -2065,12 +2036,12 @@
         <v>107</v>
       </c>
       <c r="N105" s="5">
-        <v>3374</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="5" customFormat="1">
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>106</v>
@@ -2106,76 +2077,117 @@
         <v>107</v>
       </c>
       <c r="N106" s="5">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="5" customFormat="1">
+      <c r="B107" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I107" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N107" s="5">
         <v>3377</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109" s="2" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="B109" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="B110" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="B111" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="6" customFormat="1">
-      <c r="B111" s="5" t="s">
+    <row r="112" spans="1:14" s="6" customFormat="1">
+      <c r="B112" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:14" s="5" customFormat="1">
-      <c r="B112" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F112" s="8"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="2:6" s="5" customFormat="1">
       <c r="B113" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="2:6" s="5" customFormat="1">
+      <c r="B114" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="2" t="s">
+      <c r="F114" s="8"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" s="5" customFormat="1">
-      <c r="B116" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F116" s="8"/>
     </row>
     <row r="117" spans="2:6" s="5" customFormat="1">
       <c r="B117" s="5" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="F117" s="8"/>
     </row>
     <row r="118" spans="2:6" s="5" customFormat="1">
       <c r="B118" s="5" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F118" s="8"/>
     </row>
     <row r="119" spans="2:6" s="5" customFormat="1">
       <c r="B119" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F119" s="8"/>
     </row>
     <row r="120" spans="2:6" s="5" customFormat="1">
       <c r="B120" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="2:6" s="5" customFormat="1">
+      <c r="B121" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F120" s="8"/>
+      <c r="F121" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
